--- a/Sybase/SybaseDBACheckList.xlsx
+++ b/Sybase/SybaseDBACheckList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="18795" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="18795" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="SybaseIQ" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="124">
   <si>
     <t>Category</t>
   </si>
@@ -825,6 +825,24 @@
   </si>
   <si>
     <t>CrossPlatformDumpLoad</t>
+  </si>
+  <si>
+    <t>Version Control</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>Index Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rec_index </t>
+  </si>
+  <si>
+    <t>Refresh DevTest</t>
+  </si>
+  <si>
+    <t>Refresh dev test from production</t>
   </si>
 </sst>
 </file>
@@ -1353,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2211,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2264,6 +2282,30 @@
       </c>
       <c r="B6" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
